--- a/Story/Resource List (updated).xlsx
+++ b/Story/Resource List (updated).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Exilium\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Library Laptop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F08A44-02DF-4745-A1EA-B5AC6465C73D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="175">
   <si>
     <t>Name of Resource</t>
   </si>
@@ -339,9 +338,6 @@
     <t>2 chips per fish</t>
   </si>
   <si>
-    <t>3 chips per pound of pork. 3 chips per pound of beef. 4 chips per pound of lamb. 5 chips per pound of poultry. 40 chips per pound of veal. 1 coin per pound of venison.</t>
-  </si>
-  <si>
     <t>3 chips per 2 eggs</t>
   </si>
   <si>
@@ -402,18 +398,12 @@
     <t>A bundle of cotton. Not as soft as you thought it would be… Needs to be processed somehow.</t>
   </si>
   <si>
-    <t>A bushel of corn. Looks pretty tasty.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eggs. From a hen. Try not to drop them. </t>
   </si>
   <si>
     <t>A fish. Kinda smells.</t>
   </si>
   <si>
-    <t>A bundle of flax. Needs to be processed somehow…</t>
-  </si>
-  <si>
     <t xml:space="preserve">A sack of flour. Maybe you can make some bread out of this. </t>
   </si>
   <si>
@@ -498,9 +488,6 @@
     <t>A barrel full of wine. No minors allowed!</t>
   </si>
   <si>
-    <t>A barrel full of beer. No minors allowed!</t>
-  </si>
-  <si>
     <t>1.5 coins per barrel</t>
   </si>
   <si>
@@ -529,12 +516,45 @@
   </si>
   <si>
     <t>3 royals for uncut. 5 royals for a well cut diamond.</t>
+  </si>
+  <si>
+    <t>A barrel filled to the brim with beer. No minors allowed!</t>
+  </si>
+  <si>
+    <t>A bundle of flax. Needs to be processed somehow.</t>
+  </si>
+  <si>
+    <t>A bushel of corn. Looks pretty tasty…</t>
+  </si>
+  <si>
+    <t>1 royal per bar</t>
+  </si>
+  <si>
+    <t>1.5 royals per bar</t>
+  </si>
+  <si>
+    <t>8 coins per bag</t>
+  </si>
+  <si>
+    <t>2 royals per bar</t>
+  </si>
+  <si>
+    <t>3 coins per sack</t>
+  </si>
+  <si>
+    <t>8 coins per bar</t>
+  </si>
+  <si>
+    <t>7 coins per bar</t>
+  </si>
+  <si>
+    <t>9 chips per pound of pork. 9 chips per pound of beef. 12 chips per pound of lamb. 15 chips per pound of poultry. 1.2 coins per pound of veal. 3 coins per pound of venison.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,7 +679,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -971,11 +991,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1012,10 +1032,10 @@
         <v>101</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J2" s="5"/>
     </row>
@@ -1027,10 +1047,10 @@
         <v>86</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>93</v>
@@ -1048,7 +1068,7 @@
         <v>96</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>88</v>
@@ -1062,9 +1082,11 @@
       <c r="B5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="D5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>92</v>
@@ -1078,9 +1100,11 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>89</v>
@@ -1098,7 +1122,7 @@
         <v>98</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>90</v>
@@ -1116,7 +1140,7 @@
         <v>97</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1130,7 +1154,7 @@
         <v>95</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1144,7 +1168,7 @@
         <v>95</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1155,10 +1179,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1169,10 +1193,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1183,10 +1207,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1197,10 +1221,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1214,7 +1238,7 @@
         <v>103</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1225,10 +1249,10 @@
         <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1239,10 +1263,10 @@
         <v>71</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1256,7 +1280,7 @@
         <v>95</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1270,21 +1294,21 @@
         <v>95</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1298,7 +1322,7 @@
         <v>101</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1308,9 +1332,11 @@
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="D22" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1320,9 +1346,11 @@
       <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="D23" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1333,10 +1361,10 @@
         <v>32</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1347,10 +1375,10 @@
         <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -1361,10 +1389,10 @@
         <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1373,10 +1401,10 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1390,7 +1418,7 @@
         <v>94</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1401,10 +1429,10 @@
         <v>39</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1418,7 +1446,7 @@
         <v>100</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1429,10 +1457,10 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1446,7 +1474,7 @@
         <v>99</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1460,7 +1488,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1474,7 +1502,7 @@
         <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1484,9 +1512,11 @@
       <c r="B35" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="D35" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1500,7 +1530,7 @@
         <v>102</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1511,10 +1541,10 @@
         <v>54</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1524,9 +1554,11 @@
       <c r="B38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="D38" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1536,9 +1568,11 @@
       <c r="B39" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="D39" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1549,10 +1583,10 @@
         <v>68</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1566,7 +1600,7 @@
         <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1580,7 +1614,7 @@
         <v>94</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1588,13 +1622,13 @@
         <v>82</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1605,10 +1639,10 @@
         <v>77</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1618,9 +1652,11 @@
       <c r="B45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="D45" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1630,9 +1666,11 @@
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="D46" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/Story/Resource List (updated).xlsx
+++ b/Story/Resource List (updated).xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Exilium\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2EC307-1969-4EC7-9E1A-7DB53AE9F73C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="182">
   <si>
     <t>Name of Resource</t>
   </si>
@@ -539,32 +548,50 @@
   </si>
   <si>
     <t>A shiny white bar of zinc. Can you even make anything useful out of this?</t>
+  </si>
+  <si>
+    <t>Villages</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Villages/Towns</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Towns/Capital</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -574,11 +601,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -592,71 +625,402 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF7F7F7F"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{8F6EC47F-3E5F-4608-AA92-FFF0FC60A64D}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.71"/>
-    <col customWidth="1" min="2" max="2" width="100.71"/>
-    <col customWidth="1" min="3" max="3" width="21.43"/>
-    <col customWidth="1" min="4" max="4" width="48.86"/>
-    <col customWidth="1" min="5" max="5" width="8.71"/>
-    <col customWidth="1" min="6" max="6" width="49.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="3" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="49.5703125" customWidth="1"/>
+    <col min="8" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,11 +1030,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -681,14 +1048,17 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -699,14 +1069,17 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -717,14 +1090,17 @@
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" ht="30.0" customHeight="1">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -735,14 +1111,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -753,14 +1132,17 @@
         <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -771,14 +1153,17 @@
         <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -789,10 +1174,13 @@
         <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -803,10 +1191,13 @@
         <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -817,10 +1208,13 @@
         <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -831,10 +1225,13 @@
         <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -845,10 +1242,13 @@
         <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -859,10 +1259,13 @@
         <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -873,10 +1276,13 @@
         <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -887,10 +1293,13 @@
         <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -901,10 +1310,13 @@
         <v>67</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -915,10 +1327,13 @@
         <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -929,10 +1344,13 @@
         <v>40</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -943,10 +1361,13 @@
         <v>40</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -957,10 +1378,13 @@
         <v>81</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>83</v>
       </c>
@@ -971,10 +1395,13 @@
         <v>6</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -985,10 +1412,13 @@
         <v>88</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -999,10 +1429,13 @@
         <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -1013,10 +1446,13 @@
         <v>95</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -1027,10 +1463,13 @@
         <v>99</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>101</v>
       </c>
@@ -1041,10 +1480,13 @@
         <v>103</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -1055,10 +1497,13 @@
         <v>107</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -1069,10 +1514,13 @@
         <v>81</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>112</v>
       </c>
@@ -1083,10 +1531,13 @@
         <v>114</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>116</v>
       </c>
@@ -1097,10 +1548,13 @@
         <v>118</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>120</v>
       </c>
@@ -1111,10 +1565,13 @@
         <v>114</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>123</v>
       </c>
@@ -1125,10 +1582,13 @@
         <v>125</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>127</v>
       </c>
@@ -1139,10 +1599,13 @@
         <v>40</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
@@ -1153,10 +1616,13 @@
         <v>40</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>133</v>
       </c>
@@ -1167,10 +1633,13 @@
         <v>135</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>137</v>
       </c>
@@ -1181,10 +1650,13 @@
         <v>139</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>141</v>
       </c>
@@ -1195,10 +1667,13 @@
         <v>143</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>145</v>
       </c>
@@ -1209,10 +1684,13 @@
         <v>147</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>149</v>
       </c>
@@ -1223,10 +1701,13 @@
         <v>151</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>153</v>
       </c>
@@ -1237,10 +1718,13 @@
         <v>59</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>156</v>
       </c>
@@ -1251,10 +1735,13 @@
         <v>40</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>159</v>
       </c>
@@ -1265,10 +1752,13 @@
         <v>81</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>162</v>
       </c>
@@ -1279,10 +1769,13 @@
         <v>164</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>166</v>
       </c>
@@ -1293,10 +1786,13 @@
         <v>99</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>169</v>
       </c>
@@ -1307,10 +1803,13 @@
         <v>147</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>172</v>
       </c>
@@ -1321,972 +1820,974 @@
         <v>174</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Story/Resource List (updated).xlsx
+++ b/Story/Resource List (updated).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Exilium\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2EC307-1969-4EC7-9E1A-7DB53AE9F73C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5201665D-E04F-42F6-9E12-17645E6B4C57}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="197">
   <si>
     <t>Name of Resource</t>
   </si>
@@ -550,29 +550,74 @@
     <t>A shiny white bar of zinc. Can you even make anything useful out of this?</t>
   </si>
   <si>
-    <t>Villages</t>
-  </si>
-  <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>Villages/Towns</t>
-  </si>
-  <si>
-    <t>Capital</t>
-  </si>
-  <si>
-    <t>Towns/Capital</t>
-  </si>
-  <si>
-    <t>All</t>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Fuel, Ingredient</t>
+  </si>
+  <si>
+    <t>Crop, Grain, Ingredient</t>
+  </si>
+  <si>
+    <t>Bar, Metal, Product</t>
+  </si>
+  <si>
+    <t>Ore, Metal</t>
+  </si>
+  <si>
+    <t>Bar, Metal, Product, Ingredient</t>
+  </si>
+  <si>
+    <t>Food, Produce</t>
+  </si>
+  <si>
+    <t>Food, Crop, Produce</t>
+  </si>
+  <si>
+    <t>Food, Crop, Grain, Produce</t>
+  </si>
+  <si>
+    <t>Plant, Ingredient</t>
+  </si>
+  <si>
+    <t>Powder, Product, Ingredient</t>
+  </si>
+  <si>
+    <t>Food, Crop, Produce, Ingredient</t>
+  </si>
+  <si>
+    <t>Crop, Flower, Ingredient</t>
+  </si>
+  <si>
+    <t>Gemstone</t>
+  </si>
+  <si>
+    <t>Fabric, Product</t>
+  </si>
+  <si>
+    <t>Food, Meat, Produce</t>
+  </si>
+  <si>
+    <t>Mineral, Condiment</t>
+  </si>
+  <si>
+    <t>Wood, Fuel</t>
+  </si>
+  <si>
+    <t>Liquid, Water</t>
+  </si>
+  <si>
+    <t>Liquid, Product, Alcohol</t>
+  </si>
+  <si>
+    <t>Crop, Fiber, Ingredient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -594,6 +639,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -640,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -659,6 +717,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1005,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1030,8 +1094,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>177</v>
+      <c r="D1" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1047,8 +1111,8 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>176</v>
+      <c r="D2" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -1058,7 +1122,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1132,8 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>176</v>
+      <c r="D3" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -1079,7 +1143,7 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1089,8 +1153,8 @@
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>181</v>
+      <c r="D4" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
@@ -1100,7 +1164,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1110,8 +1174,8 @@
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>181</v>
+      <c r="D5" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -1121,7 +1185,7 @@
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1131,8 +1195,8 @@
       <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>181</v>
+      <c r="D6" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -1142,7 +1206,7 @@
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1152,8 +1216,8 @@
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>178</v>
+      <c r="D7" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>32</v>
@@ -1173,14 +1237,14 @@
       <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>176</v>
+      <c r="D8" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1190,14 +1254,14 @@
       <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>178</v>
+      <c r="D9" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1207,14 +1271,14 @@
       <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="9" t="s">
         <v>181</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -1224,14 +1288,14 @@
       <c r="C11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>176</v>
+      <c r="D11" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -1241,14 +1305,14 @@
       <c r="C12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>179</v>
+      <c r="D12" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1258,14 +1322,14 @@
       <c r="C13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>178</v>
+      <c r="D13" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -1275,14 +1339,14 @@
       <c r="C14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>179</v>
+      <c r="D14" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -1292,14 +1356,14 @@
       <c r="C15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>178</v>
+      <c r="D15" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -1309,14 +1373,14 @@
       <c r="C16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>176</v>
+      <c r="D16" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -1326,14 +1390,14 @@
       <c r="C17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>176</v>
+      <c r="D17" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
@@ -1343,14 +1407,14 @@
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>180</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -1360,7 +1424,7 @@
       <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="9" t="s">
         <v>179</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1377,14 +1441,14 @@
       <c r="C20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>176</v>
+      <c r="D20" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>83</v>
       </c>
@@ -1394,14 +1458,14 @@
       <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>176</v>
+      <c r="D21" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -1411,14 +1475,14 @@
       <c r="C22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>178</v>
+      <c r="D22" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -1428,14 +1492,14 @@
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>180</v>
+      <c r="D23" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -1445,14 +1509,14 @@
       <c r="C24" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>179</v>
+      <c r="D24" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -1462,14 +1526,14 @@
       <c r="C25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>180</v>
+      <c r="D25" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>101</v>
       </c>
@@ -1479,14 +1543,14 @@
       <c r="C26" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>178</v>
+      <c r="D26" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -1496,14 +1560,14 @@
       <c r="C27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>178</v>
+      <c r="D27" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -1513,14 +1577,14 @@
       <c r="C28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>176</v>
+      <c r="D28" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>112</v>
       </c>
@@ -1530,14 +1594,14 @@
       <c r="C29" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>179</v>
+      <c r="D29" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>116</v>
       </c>
@@ -1547,14 +1611,14 @@
       <c r="C30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>181</v>
+      <c r="D30" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>120</v>
       </c>
@@ -1564,14 +1628,14 @@
       <c r="C31" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>179</v>
+      <c r="D31" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>123</v>
       </c>
@@ -1581,14 +1645,14 @@
       <c r="C32" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>179</v>
+      <c r="D32" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>127</v>
       </c>
@@ -1598,14 +1662,14 @@
       <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="9" t="s">
         <v>180</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
@@ -1615,14 +1679,14 @@
       <c r="C34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>180</v>
+      <c r="D34" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>133</v>
       </c>
@@ -1632,14 +1696,14 @@
       <c r="C35" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>180</v>
+      <c r="D35" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>137</v>
       </c>
@@ -1649,14 +1713,14 @@
       <c r="C36" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>181</v>
+      <c r="D36" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>141</v>
       </c>
@@ -1666,14 +1730,14 @@
       <c r="C37" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>178</v>
+      <c r="D37" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>145</v>
       </c>
@@ -1683,14 +1747,14 @@
       <c r="C38" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>178</v>
+      <c r="D38" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>149</v>
       </c>
@@ -1700,14 +1764,14 @@
       <c r="C39" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="9" t="s">
         <v>181</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>153</v>
       </c>
@@ -1717,14 +1781,14 @@
       <c r="C40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>179</v>
+      <c r="D40" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>156</v>
       </c>
@@ -1734,14 +1798,14 @@
       <c r="C41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>181</v>
+      <c r="D41" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>159</v>
       </c>
@@ -1751,14 +1815,14 @@
       <c r="C42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>176</v>
+      <c r="D42" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>162</v>
       </c>
@@ -1768,14 +1832,14 @@
       <c r="C43" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>181</v>
+      <c r="D43" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>166</v>
       </c>
@@ -1785,14 +1849,14 @@
       <c r="C44" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>178</v>
+      <c r="D44" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>169</v>
       </c>
@@ -1802,14 +1866,14 @@
       <c r="C45" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>178</v>
+      <c r="D45" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>172</v>
       </c>
@@ -1819,7 +1883,7 @@
       <c r="C46" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="9" t="s">
         <v>181</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -2788,6 +2852,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Story/Resource List (updated).xlsx
+++ b/Story/Resource List (updated).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Exilium\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Exilium\Documents\Senior Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5201665D-E04F-42F6-9E12-17645E6B4C57}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37446ACD-2618-408F-B747-41A24EABE46D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="202">
   <si>
     <t>Name of Resource</t>
   </si>
@@ -611,6 +611,21 @@
   </si>
   <si>
     <t>Crop, Fiber, Ingredient</t>
+  </si>
+  <si>
+    <t>SUGARCANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as "reeds that produce honey without bees. Sugarcane is a very tall plant that can grow up to 20 feet tall. The tall stalks are rich in sugar and can be processed in various ways or eaten raw. </t>
+  </si>
+  <si>
+    <t>3 coins per stalk</t>
+  </si>
+  <si>
+    <t>Food, Crop, Plant, Ingredient</t>
+  </si>
+  <si>
+    <t>A long reed filled with raw sugar.</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1703,201 +1718,217 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2850,6 +2881,7 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Story/Resource List (updated).xlsx
+++ b/Story/Resource List (updated).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Exilium\Documents\Senior Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37446ACD-2618-408F-B747-41A24EABE46D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC7BCF0-BD6F-411E-BC39-E2B9D89AF2B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="204">
   <si>
     <t>Name of Resource</t>
   </si>
@@ -163,9 +163,6 @@
     <t xml:space="preserve">A soft fiber that grows from cotton plants. The fiber is used to create yarn or threads and woven into textiles and clothing. </t>
   </si>
   <si>
-    <t>30 chips per bundle</t>
-  </si>
-  <si>
     <t>A bundle of cotton. Not as soft as you thought it would be… Needs to be processed somehow.</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>GOLD INGOT</t>
   </si>
   <si>
-    <t>A bar of solid gold and mostly hoarded by the wealthy. Used to make objects of seeming importance such as crowns.</t>
-  </si>
-  <si>
     <t>A bar of solid gold! Quite heavy. Should you really try to make something out of this?</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
     <t>LINEN</t>
   </si>
   <si>
-    <t xml:space="preserve">Fabric spun from flax. Can be spun into a thick or thin fabric. Softer and more comfortable than wool and as such, preferred for undergarments or summer wear. </t>
-  </si>
-  <si>
     <t>1.5 royals per roll</t>
   </si>
   <si>
@@ -361,9 +352,6 @@
     <t>RUBY</t>
   </si>
   <si>
-    <t xml:space="preserve">An extremely precious stone. A regal red stone, equally prized as the sapphire. Associated with good health and youth. Owning a ruby signified great wealth and social status. </t>
-  </si>
-  <si>
     <t>5 royals per stone</t>
   </si>
   <si>
@@ -626,6 +614,24 @@
   </si>
   <si>
     <t>A long reed filled with raw sugar.</t>
+  </si>
+  <si>
+    <t>A bar of solid gold and mostly hoarded by the wealthy. Used to make objects of seeming importance, such as crowns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An extremely precious stone. A regal red stone, equally prized as the sapphire. Associated with good health and youth. Owning a ruby signifies great wealth and social status. </t>
+  </si>
+  <si>
+    <t>COTTON PLANT</t>
+  </si>
+  <si>
+    <t>Fabric spun from flax. Can be spun into a thick or thin fabric. Softer and more comfortable than wool and as such, preferred for undergarments or summer wear. Seen as an alternative to cotton.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A roll of cotton. You can probably make some clothes out of this. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabric spun from cotton fiber. Very soft, comfortable and perfect for undergarments. Seen as an alternative to linen. </t>
   </si>
 </sst>
 </file>
@@ -643,17 +649,20 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1082,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1001"/>
+  <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1127,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -1148,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -1169,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
@@ -1190,7 +1199,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -1211,7 +1220,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -1232,7 +1241,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>32</v>
@@ -1253,7 +1262,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>37</v>
@@ -1270,7 +1279,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>41</v>
@@ -1287,664 +1296,680 @@
         <v>40</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="3" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D13" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="3" t="s">
+    </row>
+    <row r="14" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D14" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="3" t="s">
+    </row>
+    <row r="15" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D15" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="3" t="s">
+    </row>
+    <row r="16" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D16" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="3" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D17" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="D39" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D40" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D41" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E40" s="3" t="s">
+    </row>
+    <row r="43" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E41" s="3" t="s">
+    </row>
+    <row r="44" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E42" s="3" t="s">
+    </row>
+    <row r="45" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D45" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E44" s="3" t="s">
+    </row>
+    <row r="47" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" s="3" t="s">
+    </row>
+    <row r="48" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D48" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2882,6 +2907,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
